--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,50 +521,6 @@
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -459,67 +459,127 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6028277634961439</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.772262773722628</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6258710801393728</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2124773960216998</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>1.642857142857143</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1.490605427974948</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6028277634961439</v>
+        <v>0.5878178592548787</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.772262773722628</v>
+        <v>0.9533750869867783</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6258710801393728</v>
+        <v>4.598039215686273</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2124773960216998</v>
+        <v>1.097649186256781</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.642857142857143</v>
+        <v>1.2296918767507</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,124 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>SAS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAC</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.490605427974948</v>
+        <v>1.735507246376811</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1468531468531464</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.697674418604636</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4459930313588849</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6562500000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6274390243902439</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5878178592548787</v>
+        <v>0.7355932203389817</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9533750869867783</v>
+        <v>-1.793918918918919</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>4.598039215686273</v>
+        <v>-1.318023660403619</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.097649186256781</v>
+        <v>-1.602827763496144</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.2296918767507</v>
+        <v>-0.4880952380952372</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.735507246376811</v>
+        <v>-1.435245416913069</v>
       </c>
     </row>
     <row r="8">
@@ -587,103 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1468531468531464</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.697674418604636</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4459930313588849</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6562500000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6274390243902439</v>
+        <v>-6.100000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7355932203389817</v>
+        <v>-0.4341987466427931</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.793918918918919</v>
+        <v>19.10000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.318023660403619</v>
+        <v>1.503205128205127</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.602827763496144</v>
+        <v>1.321573948439621</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4880952380952372</v>
+        <v>-0.5399032648125756</v>
       </c>
     </row>
     <row r="7">
@@ -566,40 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.435245416913069</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-6.100000000000003</v>
+        <v>0.7062500000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="885" windowWidth="17655" windowHeight="8355"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Away_Team</t>
+  </si>
+  <si>
+    <t>Home_Team</t>
+  </si>
+  <si>
+    <t>{1: Away, 0: Home}</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>PHO</t>
+  </si>
+  <si>
+    <t>BRK</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,168 +420,138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Away_Team</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Home_Team</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>{1: Away, 0: Home}</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.4341987466427931</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.43419874664279312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>19.10000000000003</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.503205128205127</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.5032051282051271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.321573948439621</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.3215739484396209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.5399032648125756</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>-0.53990326481257556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.7062500000000003</v>
+      <c r="E7">
+        <v>0.70625000000000027</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="885" windowWidth="17655" windowHeight="8355"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Away_Team</t>
-  </si>
-  <si>
-    <t>Home_Team</t>
-  </si>
-  <si>
-    <t>{1: Away, 0: Home}</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>NYK</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>NOP</t>
-  </si>
-  <si>
-    <t>PHO</t>
-  </si>
-  <si>
-    <t>BRK</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,40 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,138 +420,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Away_Team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Home_Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>{1: Away, 0: Home}</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="n">
+        <v>-2.58445945945946</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.024837374334713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.8580375782881001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-11.20930232558138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E6" t="n">
+        <v>1.481884057971014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>-0.43419874664279312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>19.10000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1.5032051282051271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1.3215739484396209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-0.53990326481257556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.70625000000000027</v>
+      <c r="E7" t="n">
+        <v>0.6151419558359617</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.58445945945946</v>
+        <v>0.01321116807601408</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.024837374334713</v>
+        <v>0.2770106168847086</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8580375782881001</v>
+        <v>0.0139554683160199</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.20930232558138</v>
+        <v>0.2523329896987534</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.481884057971014</v>
+        <v>0.2796114511415253</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,124 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09358604419840288</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.003277392732008666</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07988962360381091</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2058735980992785</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.6151419558359617</v>
+      <c r="E11" t="n">
+        <v>0.1544113581485163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2059708251035202</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_basketball_games.xlsx
+++ b/Output/todays_basketball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01321116807601408</v>
+        <v>0.01230427335102768</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2770106168847086</v>
+        <v>0.4591784718401102</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0139554683160199</v>
+        <v>0.4083279431260243</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2523329896987534</v>
+        <v>0.1876999034512392</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2796114511415253</v>
+        <v>0.1333744863670601</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09358604419840288</v>
+        <v>0.155062698505289</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003277392732008666</v>
+        <v>0.08983655559871262</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07988962360381091</v>
+        <v>0.07441552234931947</v>
       </c>
     </row>
     <row r="10">
@@ -641,49 +641,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2058735980992785</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1544113581485163</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2059708251035202</v>
+        <v>0.2164680795900853</v>
       </c>
     </row>
   </sheetData>
